--- a/BackTest/2020-01-13 BackTest RNT.xlsx
+++ b/BackTest/2020-01-13 BackTest RNT.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N111"/>
+  <dimension ref="A1:M111"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -458,16 +453,13 @@
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -494,16 +486,13 @@
       <c r="H3" t="n">
         <v>0</v>
       </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -530,16 +519,13 @@
       <c r="H4" t="n">
         <v>0</v>
       </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -564,22 +550,19 @@
         <v>-838958.9030459493</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>10.73</v>
       </c>
       <c r="J5" t="n">
         <v>10.73</v>
       </c>
-      <c r="K5" t="n">
-        <v>10.73</v>
-      </c>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -604,26 +587,23 @@
         <v>-838958.9030459493</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>10.63</v>
       </c>
       <c r="J6" t="n">
-        <v>10.63</v>
-      </c>
-      <c r="K6" t="n">
-        <v>10.73</v>
-      </c>
-      <c r="L6" t="inlineStr">
+        <v>10.73</v>
+      </c>
+      <c r="K6" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -648,26 +628,23 @@
         <v>-674313.9798459493</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>10.63</v>
       </c>
       <c r="J7" t="n">
-        <v>10.63</v>
-      </c>
-      <c r="K7" t="n">
-        <v>10.73</v>
-      </c>
-      <c r="L7" t="inlineStr">
+        <v>10.73</v>
+      </c>
+      <c r="K7" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -692,24 +669,23 @@
         <v>-679756.6891459493</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="n">
-        <v>10.73</v>
-      </c>
-      <c r="L8" t="inlineStr">
+        <v>10.94</v>
+      </c>
+      <c r="J8" t="n">
+        <v>10.73</v>
+      </c>
+      <c r="K8" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -736,22 +712,19 @@
       <c r="H9" t="n">
         <v>0</v>
       </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="n">
-        <v>10.73</v>
-      </c>
-      <c r="L9" t="inlineStr">
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>10.73</v>
+      </c>
+      <c r="K9" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -778,22 +751,19 @@
       <c r="H10" t="n">
         <v>0</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="n">
-        <v>10.73</v>
-      </c>
-      <c r="L10" t="inlineStr">
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>10.73</v>
+      </c>
+      <c r="K10" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -820,22 +790,19 @@
       <c r="H11" t="n">
         <v>0</v>
       </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="n">
-        <v>10.73</v>
-      </c>
-      <c r="L11" t="inlineStr">
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>10.73</v>
+      </c>
+      <c r="K11" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -860,24 +827,23 @@
         <v>-690186.6891459493</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="n">
-        <v>10.73</v>
-      </c>
-      <c r="L12" t="inlineStr">
+        <v>10.94</v>
+      </c>
+      <c r="J12" t="n">
+        <v>10.73</v>
+      </c>
+      <c r="K12" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -902,24 +868,23 @@
         <v>-736874.6051459493</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="n">
-        <v>10.73</v>
-      </c>
-      <c r="L13" t="inlineStr">
+        <v>10.83</v>
+      </c>
+      <c r="J13" t="n">
+        <v>10.73</v>
+      </c>
+      <c r="K13" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -944,24 +909,23 @@
         <v>-394727.8596459493</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="n">
-        <v>10.73</v>
-      </c>
-      <c r="L14" t="inlineStr">
+        <v>10.73</v>
+      </c>
+      <c r="J14" t="n">
+        <v>10.73</v>
+      </c>
+      <c r="K14" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -988,22 +952,19 @@
       <c r="H15" t="n">
         <v>0</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="n">
-        <v>10.73</v>
-      </c>
-      <c r="L15" t="inlineStr">
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>10.73</v>
+      </c>
+      <c r="K15" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1030,22 +991,19 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="n">
-        <v>10.73</v>
-      </c>
-      <c r="L16" t="inlineStr">
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>10.73</v>
+      </c>
+      <c r="K16" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1072,22 +1030,19 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="n">
-        <v>10.73</v>
-      </c>
-      <c r="L17" t="inlineStr">
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>10.73</v>
+      </c>
+      <c r="K17" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1114,22 +1069,19 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="n">
-        <v>10.73</v>
-      </c>
-      <c r="L18" t="inlineStr">
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>10.73</v>
+      </c>
+      <c r="K18" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1156,22 +1108,19 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="n">
-        <v>10.73</v>
-      </c>
-      <c r="L19" t="inlineStr">
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>10.73</v>
+      </c>
+      <c r="K19" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1196,24 +1145,23 @@
         <v>-403766.3101459492</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="n">
-        <v>10.73</v>
-      </c>
-      <c r="L20" t="inlineStr">
+        <v>10.93</v>
+      </c>
+      <c r="J20" t="n">
+        <v>10.73</v>
+      </c>
+      <c r="K20" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1238,24 +1186,23 @@
         <v>-403766.3101459492</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="n">
-        <v>10.73</v>
-      </c>
-      <c r="L21" t="inlineStr">
+        <v>10.94</v>
+      </c>
+      <c r="J21" t="n">
+        <v>10.73</v>
+      </c>
+      <c r="K21" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1280,24 +1227,23 @@
         <v>-379717.2101459493</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="n">
-        <v>10.73</v>
-      </c>
-      <c r="L22" t="inlineStr">
+        <v>10.94</v>
+      </c>
+      <c r="J22" t="n">
+        <v>10.73</v>
+      </c>
+      <c r="K22" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1324,22 +1270,19 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="n">
-        <v>10.73</v>
-      </c>
-      <c r="L23" t="inlineStr">
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>10.73</v>
+      </c>
+      <c r="K23" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1366,22 +1309,19 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="n">
-        <v>10.73</v>
-      </c>
-      <c r="L24" t="inlineStr">
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>10.73</v>
+      </c>
+      <c r="K24" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1408,22 +1348,19 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="n">
-        <v>10.73</v>
-      </c>
-      <c r="L25" t="inlineStr">
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>10.73</v>
+      </c>
+      <c r="K25" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1450,22 +1387,19 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="n">
-        <v>10.73</v>
-      </c>
-      <c r="L26" t="inlineStr">
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>10.73</v>
+      </c>
+      <c r="K26" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1492,22 +1426,19 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="n">
-        <v>10.73</v>
-      </c>
-      <c r="L27" t="inlineStr">
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>10.73</v>
+      </c>
+      <c r="K27" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1532,24 +1463,23 @@
         <v>-345489.2624459493</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="n">
-        <v>10.73</v>
-      </c>
-      <c r="L28" t="inlineStr">
+        <v>10.94</v>
+      </c>
+      <c r="J28" t="n">
+        <v>10.73</v>
+      </c>
+      <c r="K28" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1576,22 +1506,19 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="n">
-        <v>10.73</v>
-      </c>
-      <c r="L29" t="inlineStr">
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>10.73</v>
+      </c>
+      <c r="K29" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1616,24 +1543,23 @@
         <v>-315612.1990459493</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="n">
-        <v>10.73</v>
-      </c>
-      <c r="L30" t="inlineStr">
+        <v>11.05</v>
+      </c>
+      <c r="J30" t="n">
+        <v>10.73</v>
+      </c>
+      <c r="K30" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1660,22 +1586,19 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="n">
-        <v>10.73</v>
-      </c>
-      <c r="L31" t="inlineStr">
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>10.73</v>
+      </c>
+      <c r="K31" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1702,22 +1625,19 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="n">
-        <v>10.73</v>
-      </c>
-      <c r="L32" t="inlineStr">
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>10.73</v>
+      </c>
+      <c r="K32" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1744,22 +1664,19 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="n">
-        <v>10.73</v>
-      </c>
-      <c r="L33" t="inlineStr">
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>10.73</v>
+      </c>
+      <c r="K33" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1786,22 +1703,19 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="n">
-        <v>10.73</v>
-      </c>
-      <c r="L34" t="inlineStr">
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>10.73</v>
+      </c>
+      <c r="K34" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1828,22 +1742,19 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="n">
-        <v>10.73</v>
-      </c>
-      <c r="L35" t="inlineStr">
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>10.73</v>
+      </c>
+      <c r="K35" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1870,22 +1781,19 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="n">
-        <v>10.73</v>
-      </c>
-      <c r="L36" t="inlineStr">
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>10.73</v>
+      </c>
+      <c r="K36" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1912,22 +1820,19 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="n">
-        <v>10.73</v>
-      </c>
-      <c r="L37" t="inlineStr">
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>10.73</v>
+      </c>
+      <c r="K37" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1954,22 +1859,19 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="n">
-        <v>10.73</v>
-      </c>
-      <c r="L38" t="inlineStr">
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>10.73</v>
+      </c>
+      <c r="K38" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1996,22 +1898,19 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="n">
-        <v>10.73</v>
-      </c>
-      <c r="L39" t="inlineStr">
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>10.73</v>
+      </c>
+      <c r="K39" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -2038,22 +1937,19 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="n">
-        <v>10.73</v>
-      </c>
-      <c r="L40" t="inlineStr">
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>10.73</v>
+      </c>
+      <c r="K40" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -2080,22 +1976,19 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="n">
-        <v>10.73</v>
-      </c>
-      <c r="L41" t="inlineStr">
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>10.73</v>
+      </c>
+      <c r="K41" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2122,22 +2015,19 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="n">
-        <v>10.73</v>
-      </c>
-      <c r="L42" t="inlineStr">
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>10.73</v>
+      </c>
+      <c r="K42" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2162,24 +2052,21 @@
         <v>-142642.3319459494</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="n">
-        <v>10.73</v>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>10.73</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L43" t="n">
+        <v>1.044394221808015</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2204,24 +2091,15 @@
         <v>-142642.3319459494</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="n">
-        <v>10.73</v>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M44" t="n">
-        <v>1.044394221808015</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2246,18 +2124,15 @@
         <v>-142642.3319459494</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2282,18 +2157,15 @@
         <v>-142642.3319459494</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2318,18 +2190,15 @@
         <v>-163741.7679459493</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2354,18 +2223,15 @@
         <v>-230038.8332459494</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2390,18 +2256,15 @@
         <v>-295068.9790459494</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2426,18 +2289,15 @@
         <v>-299006.8960459494</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2464,16 +2324,13 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2500,16 +2357,13 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2536,16 +2390,13 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2572,16 +2423,13 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2608,16 +2456,13 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2644,16 +2489,13 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2680,16 +2522,13 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2716,16 +2555,13 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2750,18 +2586,15 @@
         <v>-596852.5152277676</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2786,18 +2619,15 @@
         <v>-630912.5152277676</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2822,18 +2652,15 @@
         <v>-628988.5978277676</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2858,18 +2685,15 @@
         <v>-616280.1074277676</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2894,18 +2718,15 @@
         <v>-777609.6689277675</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2930,18 +2751,15 @@
         <v>-777609.6689277675</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2968,16 +2786,13 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -3004,16 +2819,13 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -3038,18 +2850,15 @@
         <v>-715928.9981277676</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -3074,18 +2883,15 @@
         <v>-863248.2444277676</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3110,18 +2916,15 @@
         <v>-863199.7899277676</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3148,16 +2951,13 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3182,18 +2982,15 @@
         <v>-880849.5899277676</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3220,16 +3017,13 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3254,18 +3048,15 @@
         <v>-880801.1354277676</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3292,16 +3083,13 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3326,18 +3114,15 @@
         <v>-882973.4554277676</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3362,18 +3147,15 @@
         <v>-882973.4554277676</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3400,16 +3182,13 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3434,18 +3213,15 @@
         <v>-882923.4554277676</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3470,18 +3246,15 @@
         <v>-913102.3106277676</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3506,18 +3279,15 @@
         <v>-937979.9338277676</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3542,18 +3312,15 @@
         <v>-937929.9338277676</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3580,16 +3347,13 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3616,16 +3380,13 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3652,16 +3413,13 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3688,16 +3446,13 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3724,16 +3479,13 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3760,16 +3512,13 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3796,16 +3545,13 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3832,16 +3578,13 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3868,16 +3611,13 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3904,16 +3644,13 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3940,16 +3677,13 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3976,16 +3710,13 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -4012,16 +3743,13 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -4048,16 +3776,13 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4084,16 +3809,13 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4120,16 +3842,13 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4156,16 +3875,13 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4192,16 +3908,13 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4228,16 +3941,13 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4264,16 +3974,13 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4300,16 +4007,13 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4336,16 +4040,13 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4372,16 +4073,13 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4408,16 +4106,13 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4444,16 +4139,13 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4480,16 +4172,13 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4516,16 +4205,13 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4552,16 +4238,13 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4588,16 +4271,13 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4624,18 +4304,15 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-13 BackTest RNT.xlsx
+++ b/BackTest/2020-01-13 BackTest RNT.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -550,14 +550,10 @@
         <v>-838958.9030459493</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
-      </c>
-      <c r="I5" t="n">
-        <v>10.73</v>
-      </c>
-      <c r="J5" t="n">
-        <v>10.73</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
         <v>1</v>
@@ -587,60 +583,56 @@
         <v>-838958.9030459493</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>10.63</v>
       </c>
       <c r="J6" t="n">
+        <v>10.63</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
         <v>10.73</v>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="C7" t="n">
+        <v>10.94</v>
+      </c>
+      <c r="D7" t="n">
+        <v>10.94</v>
+      </c>
+      <c r="E7" t="n">
+        <v>10.73</v>
+      </c>
+      <c r="F7" t="n">
+        <v>164644.9232</v>
+      </c>
+      <c r="G7" t="n">
+        <v>-674313.9798459493</v>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>10.63</v>
+      </c>
+      <c r="J7" t="n">
+        <v>10.63</v>
+      </c>
+      <c r="K7" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>10.73</v>
-      </c>
-      <c r="C7" t="n">
-        <v>10.94</v>
-      </c>
-      <c r="D7" t="n">
-        <v>10.94</v>
-      </c>
-      <c r="E7" t="n">
-        <v>10.73</v>
-      </c>
-      <c r="F7" t="n">
-        <v>164644.9232</v>
-      </c>
-      <c r="G7" t="n">
-        <v>-674313.9798459493</v>
-      </c>
-      <c r="H7" t="n">
-        <v>2</v>
-      </c>
-      <c r="I7" t="n">
-        <v>10.63</v>
-      </c>
-      <c r="J7" t="n">
-        <v>10.73</v>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -669,17 +661,15 @@
         <v>-679756.6891459493</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
-      </c>
-      <c r="I8" t="n">
-        <v>10.94</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="n">
-        <v>10.73</v>
+        <v>10.63</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L8" t="n">
@@ -713,14 +703,8 @@
         <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="n">
-        <v>10.73</v>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -752,14 +736,8 @@
         <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="n">
-        <v>10.73</v>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -791,14 +769,8 @@
         <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="n">
-        <v>10.73</v>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -827,19 +799,11 @@
         <v>-690186.6891459493</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
-      </c>
-      <c r="I12" t="n">
-        <v>10.94</v>
-      </c>
-      <c r="J12" t="n">
-        <v>10.73</v>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -868,19 +832,11 @@
         <v>-736874.6051459493</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
-      </c>
-      <c r="I13" t="n">
-        <v>10.83</v>
-      </c>
-      <c r="J13" t="n">
-        <v>10.73</v>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -909,7 +865,7 @@
         <v>-394727.8596459493</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
         <v>10.73</v>
@@ -917,11 +873,7 @@
       <c r="J14" t="n">
         <v>10.73</v>
       </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -950,15 +902,17 @@
         <v>-394677.8596459493</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>10.83</v>
+      </c>
       <c r="J15" t="n">
         <v>10.73</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L15" t="n">
@@ -997,7 +951,7 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L16" t="n">
@@ -1028,17 +982,15 @@
         <v>-456549.2488459492</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>10.94</v>
+      </c>
       <c r="J17" t="n">
-        <v>10.73</v>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>10.94</v>
+      </c>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -1071,11 +1023,11 @@
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="n">
-        <v>10.73</v>
+        <v>10.94</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L18" t="n">
@@ -1110,11 +1062,11 @@
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="n">
-        <v>10.73</v>
+        <v>10.94</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L19" t="n">
@@ -1145,19 +1097,11 @@
         <v>-403766.3101459492</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
-      </c>
-      <c r="I20" t="n">
-        <v>10.93</v>
-      </c>
-      <c r="J20" t="n">
-        <v>10.73</v>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1186,19 +1130,11 @@
         <v>-403766.3101459492</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
-      </c>
-      <c r="I21" t="n">
-        <v>10.94</v>
-      </c>
-      <c r="J21" t="n">
-        <v>10.73</v>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1227,19 +1163,15 @@
         <v>-379717.2101459493</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
         <v>10.94</v>
       </c>
       <c r="J22" t="n">
-        <v>10.73</v>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>10.94</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1268,15 +1200,17 @@
         <v>-379669.2101459493</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I23" t="n">
+        <v>10.95</v>
+      </c>
       <c r="J23" t="n">
-        <v>10.73</v>
+        <v>10.94</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L23" t="n">
@@ -1307,15 +1241,17 @@
         <v>-379669.2101459493</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I24" t="n">
+        <v>10.98</v>
+      </c>
       <c r="J24" t="n">
-        <v>10.73</v>
+        <v>10.94</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L24" t="n">
@@ -1349,14 +1285,8 @@
         <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="n">
-        <v>10.73</v>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1388,14 +1318,8 @@
         <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="n">
-        <v>10.73</v>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1427,14 +1351,8 @@
         <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="n">
-        <v>10.73</v>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1463,19 +1381,11 @@
         <v>-345489.2624459493</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
-      </c>
-      <c r="I28" t="n">
-        <v>10.94</v>
-      </c>
-      <c r="J28" t="n">
-        <v>10.73</v>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1507,14 +1417,8 @@
         <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="n">
-        <v>10.73</v>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1543,19 +1447,11 @@
         <v>-315612.1990459493</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
-      </c>
-      <c r="I30" t="n">
-        <v>11.05</v>
-      </c>
-      <c r="J30" t="n">
-        <v>10.73</v>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1587,14 +1483,8 @@
         <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="n">
-        <v>10.73</v>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1626,14 +1516,8 @@
         <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="n">
-        <v>10.73</v>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1665,14 +1549,8 @@
         <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="n">
-        <v>10.73</v>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1704,14 +1582,8 @@
         <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="n">
-        <v>10.73</v>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1743,14 +1615,8 @@
         <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="n">
-        <v>10.73</v>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1782,14 +1648,8 @@
         <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="n">
-        <v>10.73</v>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1821,14 +1681,8 @@
         <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="n">
-        <v>10.73</v>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1860,14 +1714,8 @@
         <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="n">
-        <v>10.73</v>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1899,14 +1747,8 @@
         <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="n">
-        <v>10.73</v>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1938,14 +1780,8 @@
         <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="n">
-        <v>10.73</v>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1977,14 +1813,8 @@
         <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="n">
-        <v>10.73</v>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -2016,14 +1846,8 @@
         <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="n">
-        <v>10.73</v>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -2052,19 +1876,13 @@
         <v>-142642.3319459494</v>
       </c>
       <c r="H43" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="n">
-        <v>10.73</v>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
-        <v>1.044394221808015</v>
+        <v>1</v>
       </c>
       <c r="M43" t="inlineStr"/>
     </row>
@@ -2091,7 +1909,7 @@
         <v>-142642.3319459494</v>
       </c>
       <c r="H44" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -2124,7 +1942,7 @@
         <v>-142642.3319459494</v>
       </c>
       <c r="H45" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -2157,7 +1975,7 @@
         <v>-142642.3319459494</v>
       </c>
       <c r="H46" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -2190,7 +2008,7 @@
         <v>-163741.7679459493</v>
       </c>
       <c r="H47" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -2223,7 +2041,7 @@
         <v>-230038.8332459494</v>
       </c>
       <c r="H48" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2256,7 +2074,7 @@
         <v>-295068.9790459494</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2289,7 +2107,7 @@
         <v>-299006.8960459494</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2322,7 +2140,7 @@
         <v>-298958.8960459494</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2355,7 +2173,7 @@
         <v>-326475.7142277675</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2388,7 +2206,7 @@
         <v>-353992.5323277675</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2421,7 +2239,7 @@
         <v>-347102.5323277675</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2454,7 +2272,7 @@
         <v>-347483.4421277675</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2487,7 +2305,7 @@
         <v>-477359.7773277676</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2520,7 +2338,7 @@
         <v>-609203.8639277676</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2553,7 +2371,7 @@
         <v>-597025.4336277676</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2586,7 +2404,7 @@
         <v>-596852.5152277676</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2619,7 +2437,7 @@
         <v>-630912.5152277676</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2652,7 +2470,7 @@
         <v>-628988.5978277676</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2685,7 +2503,7 @@
         <v>-616280.1074277676</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2718,7 +2536,7 @@
         <v>-777609.6689277675</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2751,7 +2569,7 @@
         <v>-777609.6689277675</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2850,7 +2668,7 @@
         <v>-715928.9981277676</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2883,7 +2701,7 @@
         <v>-863248.2444277676</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2916,7 +2734,7 @@
         <v>-863199.7899277676</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2982,7 +2800,7 @@
         <v>-880849.5899277676</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -3048,7 +2866,7 @@
         <v>-880801.1354277676</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -3114,7 +2932,7 @@
         <v>-882973.4554277676</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -3147,7 +2965,7 @@
         <v>-882973.4554277676</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -3213,7 +3031,7 @@
         <v>-882923.4554277676</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -3246,7 +3064,7 @@
         <v>-913102.3106277676</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3279,7 +3097,7 @@
         <v>-937979.9338277676</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3312,7 +3130,7 @@
         <v>-937929.9338277676</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -4203,10 +4021,14 @@
         <v>-945911.5209277674</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I108" t="n">
+        <v>10.78</v>
+      </c>
+      <c r="J108" t="n">
+        <v>10.78</v>
+      </c>
       <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
@@ -4236,11 +4058,19 @@
         <v>-945863.5209277674</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I109" t="n">
+        <v>10.82</v>
+      </c>
+      <c r="J109" t="n">
+        <v>10.78</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4269,11 +4099,19 @@
         <v>-965673.5209277674</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I110" t="n">
+        <v>10.95</v>
+      </c>
+      <c r="J110" t="n">
+        <v>10.78</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4302,10 +4140,14 @@
         <v>-960054.1015277674</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I111" t="n">
+        <v>10.84</v>
+      </c>
+      <c r="J111" t="n">
+        <v>10.84</v>
+      </c>
       <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
@@ -4313,6 +4155,6 @@
       <c r="M111" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-13 BackTest RNT.xlsx
+++ b/BackTest/2020-01-13 BackTest RNT.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -583,14 +583,10 @@
         <v>-838958.9030459493</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>10.63</v>
-      </c>
-      <c r="J6" t="n">
-        <v>10.63</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
@@ -620,19 +616,11 @@
         <v>-674313.9798459493</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>10.63</v>
-      </c>
-      <c r="J7" t="n">
-        <v>10.63</v>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -664,14 +652,8 @@
         <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="n">
-        <v>10.63</v>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -865,14 +847,10 @@
         <v>-394727.8596459493</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>10.73</v>
-      </c>
-      <c r="J14" t="n">
-        <v>10.73</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
         <v>1</v>
@@ -902,19 +880,11 @@
         <v>-394677.8596459493</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>10.83</v>
-      </c>
-      <c r="J15" t="n">
-        <v>10.73</v>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -946,14 +916,8 @@
         <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="n">
-        <v>10.73</v>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -982,14 +946,10 @@
         <v>-456549.2488459492</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>10.94</v>
-      </c>
-      <c r="J17" t="n">
-        <v>10.94</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
         <v>1</v>
@@ -1022,14 +982,8 @@
         <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="n">
-        <v>10.94</v>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1061,14 +1015,8 @@
         <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="n">
-        <v>10.94</v>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1130,7 +1078,7 @@
         <v>-403766.3101459492</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1163,14 +1111,10 @@
         <v>-379717.2101459493</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>10.94</v>
-      </c>
-      <c r="J22" t="n">
-        <v>10.94</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
         <v>1</v>
@@ -1200,19 +1144,11 @@
         <v>-379669.2101459493</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I23" t="n">
-        <v>10.95</v>
-      </c>
-      <c r="J23" t="n">
-        <v>10.94</v>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1241,19 +1177,11 @@
         <v>-379669.2101459493</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>10.98</v>
-      </c>
-      <c r="J24" t="n">
-        <v>10.94</v>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1315,7 +1243,7 @@
         <v>-390371.2101459493</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1381,7 +1309,7 @@
         <v>-345489.2624459493</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1414,7 +1342,7 @@
         <v>-345489.2624459493</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1447,7 +1375,7 @@
         <v>-315612.1990459493</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1480,7 +1408,7 @@
         <v>-315782.1990459493</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1513,7 +1441,7 @@
         <v>-315685.8865459493</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1645,7 +1573,7 @@
         <v>-213642.6763459494</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1876,7 +1804,7 @@
         <v>-142642.3319459494</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1909,7 +1837,7 @@
         <v>-142642.3319459494</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1942,7 +1870,7 @@
         <v>-142642.3319459494</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1975,7 +1903,7 @@
         <v>-142642.3319459494</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -2041,7 +1969,7 @@
         <v>-230038.8332459494</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2074,7 +2002,7 @@
         <v>-295068.9790459494</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2107,7 +2035,7 @@
         <v>-299006.8960459494</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2140,7 +2068,7 @@
         <v>-298958.8960459494</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2173,7 +2101,7 @@
         <v>-326475.7142277675</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2206,7 +2134,7 @@
         <v>-353992.5323277675</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2272,7 +2200,7 @@
         <v>-347483.4421277675</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2338,7 +2266,7 @@
         <v>-609203.8639277676</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2371,7 +2299,7 @@
         <v>-597025.4336277676</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2404,7 +2332,7 @@
         <v>-596852.5152277676</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2437,7 +2365,7 @@
         <v>-630912.5152277676</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2536,7 +2464,7 @@
         <v>-777609.6689277675</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2668,7 +2596,7 @@
         <v>-715928.9981277676</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2701,7 +2629,7 @@
         <v>-863248.2444277676</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -3493,10 +3421,14 @@
         <v>-1045747.954927767</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I92" t="n">
+        <v>10.66</v>
+      </c>
+      <c r="J92" t="n">
+        <v>10.66</v>
+      </c>
       <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
@@ -3529,8 +3461,14 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>10.66</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3562,8 +3500,14 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>10.66</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3724,10 +3668,14 @@
         <v>-1085595.709927768</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I99" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="J99" t="n">
+        <v>10.75</v>
+      </c>
       <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
@@ -3760,8 +3708,14 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3793,8 +3747,14 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4021,14 +3981,10 @@
         <v>-945911.5209277674</v>
       </c>
       <c r="H108" t="n">
-        <v>1</v>
-      </c>
-      <c r="I108" t="n">
-        <v>10.78</v>
-      </c>
-      <c r="J108" t="n">
-        <v>10.78</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I108" t="inlineStr"/>
+      <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
@@ -4058,19 +4014,11 @@
         <v>-945863.5209277674</v>
       </c>
       <c r="H109" t="n">
-        <v>1</v>
-      </c>
-      <c r="I109" t="n">
-        <v>10.82</v>
-      </c>
-      <c r="J109" t="n">
-        <v>10.78</v>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I109" t="inlineStr"/>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4099,19 +4047,11 @@
         <v>-965673.5209277674</v>
       </c>
       <c r="H110" t="n">
-        <v>1</v>
-      </c>
-      <c r="I110" t="n">
-        <v>10.95</v>
-      </c>
-      <c r="J110" t="n">
-        <v>10.78</v>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I110" t="inlineStr"/>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4140,14 +4080,10 @@
         <v>-960054.1015277674</v>
       </c>
       <c r="H111" t="n">
-        <v>1</v>
-      </c>
-      <c r="I111" t="n">
-        <v>10.84</v>
-      </c>
-      <c r="J111" t="n">
-        <v>10.84</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I111" t="inlineStr"/>
+      <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
@@ -4155,6 +4091,6 @@
       <c r="M111" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-13 BackTest RNT.xlsx
+++ b/BackTest/2020-01-13 BackTest RNT.xlsx
@@ -550,10 +550,14 @@
         <v>-838958.9030459493</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>10.73</v>
+      </c>
+      <c r="J5" t="n">
+        <v>10.73</v>
+      </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
         <v>1</v>
@@ -583,11 +587,19 @@
         <v>-838958.9030459493</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>10.63</v>
+      </c>
+      <c r="J6" t="n">
+        <v>10.73</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -616,11 +628,19 @@
         <v>-674313.9798459493</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>10.63</v>
+      </c>
+      <c r="J7" t="n">
+        <v>10.73</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -652,8 +672,14 @@
         <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>10.73</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -685,8 +711,14 @@
         <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>10.73</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -718,8 +750,14 @@
         <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>10.73</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -751,8 +789,14 @@
         <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>10.73</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -784,8 +828,14 @@
         <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>10.73</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -817,8 +867,14 @@
         <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>10.73</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -850,8 +906,14 @@
         <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>10.73</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -883,8 +945,14 @@
         <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>10.73</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -916,8 +984,14 @@
         <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>10.73</v>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -946,11 +1020,17 @@
         <v>-456549.2488459492</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>10.73</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -982,8 +1062,14 @@
         <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>10.73</v>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1015,8 +1101,14 @@
         <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>10.73</v>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1048,8 +1140,14 @@
         <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>10.73</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1078,11 +1176,17 @@
         <v>-403766.3101459492</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>10.73</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1111,11 +1215,17 @@
         <v>-379717.2101459493</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>10.73</v>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1147,8 +1257,14 @@
         <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>10.73</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1180,8 +1296,14 @@
         <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>10.73</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1213,8 +1335,14 @@
         <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>10.73</v>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1243,11 +1371,17 @@
         <v>-390371.2101459493</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>10.73</v>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1279,8 +1413,14 @@
         <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>10.73</v>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1309,11 +1449,17 @@
         <v>-345489.2624459493</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>10.73</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1342,11 +1488,17 @@
         <v>-345489.2624459493</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>10.73</v>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1375,11 +1527,17 @@
         <v>-315612.1990459493</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>10.73</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1408,11 +1566,17 @@
         <v>-315782.1990459493</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>10.73</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1441,11 +1605,17 @@
         <v>-315685.8865459493</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>10.73</v>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1477,8 +1647,14 @@
         <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>10.73</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1510,8 +1686,14 @@
         <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>10.73</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1543,8 +1725,14 @@
         <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>10.73</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1573,11 +1761,17 @@
         <v>-213642.6763459494</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>10.73</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1609,8 +1803,14 @@
         <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>10.73</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1642,8 +1842,14 @@
         <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>10.73</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1675,8 +1881,14 @@
         <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>10.73</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1708,8 +1920,14 @@
         <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>10.73</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1738,13 +1956,19 @@
         <v>-142642.3319459494</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>10.73</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L41" t="n">
-        <v>1</v>
+        <v>1.044394221808015</v>
       </c>
       <c r="M41" t="inlineStr"/>
     </row>
@@ -1771,7 +1995,7 @@
         <v>-142642.3319459494</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1936,7 +2160,7 @@
         <v>-163741.7679459493</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +2193,7 @@
         <v>-230038.8332459494</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2167,7 +2391,7 @@
         <v>-347102.5323277675</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2233,7 +2457,7 @@
         <v>-477359.7773277676</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -3421,14 +3645,10 @@
         <v>-1045747.954927767</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
-      </c>
-      <c r="I92" t="n">
-        <v>10.66</v>
-      </c>
-      <c r="J92" t="n">
-        <v>10.66</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
@@ -3461,14 +3681,8 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="n">
-        <v>10.66</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3500,14 +3714,8 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
-        <v>10.66</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3668,14 +3876,10 @@
         <v>-1085595.709927768</v>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
-      </c>
-      <c r="I99" t="n">
-        <v>10.75</v>
-      </c>
-      <c r="J99" t="n">
-        <v>10.75</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I99" t="inlineStr"/>
+      <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
@@ -3708,14 +3912,8 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>10.75</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3747,14 +3945,8 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>10.75</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4014,10 +4206,14 @@
         <v>-945863.5209277674</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I109" t="n">
+        <v>10.82</v>
+      </c>
+      <c r="J109" t="n">
+        <v>10.82</v>
+      </c>
       <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
@@ -4047,11 +4243,19 @@
         <v>-965673.5209277674</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I110" t="n">
+        <v>10.95</v>
+      </c>
+      <c r="J110" t="n">
+        <v>10.82</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4080,11 +4284,19 @@
         <v>-960054.1015277674</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I111" t="n">
+        <v>10.84</v>
+      </c>
+      <c r="J111" t="n">
+        <v>10.82</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>

--- a/BackTest/2020-01-13 BackTest RNT.xlsx
+++ b/BackTest/2020-01-13 BackTest RNT.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M111"/>
+  <dimension ref="A1:L111"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
           <t>OBV</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>trade_state</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>88300.9363</v>
       </c>
       <c r="G2" t="n">
-        <v>-834641.0705459493</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,15 @@
         <v>23594.123</v>
       </c>
       <c r="G3" t="n">
-        <v>-834641.0705459493</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +503,19 @@
         <v>1000</v>
       </c>
       <c r="G4" t="n">
-        <v>-834641.0705459493</v>
+        <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
+        <v>10.73</v>
+      </c>
+      <c r="I4" t="n">
+        <v>10.73</v>
+      </c>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,22 +537,21 @@
         <v>4317.8325</v>
       </c>
       <c r="G5" t="n">
-        <v>-838958.9030459493</v>
-      </c>
-      <c r="H5" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="n">
         <v>10.73</v>
       </c>
-      <c r="J5" t="n">
-        <v>10.73</v>
-      </c>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -584,26 +573,23 @@
         <v>6090.9133</v>
       </c>
       <c r="G6" t="n">
-        <v>-838958.9030459493</v>
+        <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>10.63</v>
       </c>
       <c r="I6" t="n">
-        <v>10.63</v>
-      </c>
-      <c r="J6" t="n">
         <v>10.73</v>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="J6" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -625,26 +611,19 @@
         <v>164644.9232</v>
       </c>
       <c r="G7" t="n">
-        <v>-674313.9798459493</v>
+        <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>10.63</v>
       </c>
       <c r="I7" t="n">
         <v>10.63</v>
       </c>
-      <c r="J7" t="n">
-        <v>10.73</v>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -666,24 +645,21 @@
         <v>5442.7093</v>
       </c>
       <c r="G8" t="n">
-        <v>-679756.6891459493</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="n">
-        <v>10.73</v>
-      </c>
-      <c r="K8" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="n">
+        <v>10.63</v>
+      </c>
+      <c r="J8" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -705,24 +681,21 @@
         <v>50</v>
       </c>
       <c r="G9" t="n">
-        <v>-679706.6891459493</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="n">
-        <v>10.73</v>
-      </c>
-      <c r="K9" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="n">
+        <v>10.63</v>
+      </c>
+      <c r="J9" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -744,24 +717,15 @@
         <v>1995</v>
       </c>
       <c r="G10" t="n">
-        <v>-681701.6891459493</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="n">
-        <v>10.73</v>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -783,24 +747,15 @@
         <v>50</v>
       </c>
       <c r="G11" t="n">
-        <v>-681651.6891459493</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="n">
-        <v>10.73</v>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -822,24 +777,15 @@
         <v>8535</v>
       </c>
       <c r="G12" t="n">
-        <v>-690186.6891459493</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="n">
-        <v>10.73</v>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -861,24 +807,15 @@
         <v>46687.916</v>
       </c>
       <c r="G13" t="n">
-        <v>-736874.6051459493</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="n">
-        <v>10.73</v>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -900,24 +837,15 @@
         <v>342146.7455</v>
       </c>
       <c r="G14" t="n">
-        <v>-394727.8596459493</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="n">
-        <v>10.73</v>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -939,24 +867,15 @@
         <v>50</v>
       </c>
       <c r="G15" t="n">
-        <v>-394677.8596459493</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="n">
-        <v>10.73</v>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -978,24 +897,15 @@
         <v>273.448</v>
       </c>
       <c r="G16" t="n">
-        <v>-394951.3076459492</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="n">
-        <v>10.73</v>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1017,24 +927,15 @@
         <v>61597.9412</v>
       </c>
       <c r="G17" t="n">
-        <v>-456549.2488459492</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
-      <c r="J17" t="n">
-        <v>10.73</v>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1056,24 +957,15 @@
         <v>25955.6409</v>
       </c>
       <c r="G18" t="n">
-        <v>-430593.6079459492</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="n">
-        <v>10.73</v>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1095,24 +987,15 @@
         <v>207489.3591</v>
       </c>
       <c r="G19" t="n">
-        <v>-430593.6079459492</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="n">
-        <v>10.73</v>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1134,24 +1017,15 @@
         <v>26827.2978</v>
       </c>
       <c r="G20" t="n">
-        <v>-403766.3101459492</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="n">
-        <v>10.73</v>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1173,24 +1047,15 @@
         <v>12973</v>
       </c>
       <c r="G21" t="n">
-        <v>-403766.3101459492</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="n">
-        <v>10.73</v>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1212,24 +1077,15 @@
         <v>24049.1</v>
       </c>
       <c r="G22" t="n">
-        <v>-379717.2101459493</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="n">
-        <v>10.73</v>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1251,24 +1107,15 @@
         <v>48</v>
       </c>
       <c r="G23" t="n">
-        <v>-379669.2101459493</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="n">
-        <v>10.73</v>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1290,24 +1137,15 @@
         <v>46</v>
       </c>
       <c r="G24" t="n">
-        <v>-379669.2101459493</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="n">
-        <v>10.73</v>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1329,24 +1167,15 @@
         <v>10702</v>
       </c>
       <c r="G25" t="n">
-        <v>-390371.2101459493</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="n">
-        <v>10.73</v>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1368,24 +1197,15 @@
         <v>5110</v>
       </c>
       <c r="G26" t="n">
-        <v>-390371.2101459493</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="n">
-        <v>10.73</v>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1407,24 +1227,15 @@
         <v>193976.3734</v>
       </c>
       <c r="G27" t="n">
-        <v>-584347.5835459493</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="n">
-        <v>10.73</v>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1446,24 +1257,15 @@
         <v>238858.3211</v>
       </c>
       <c r="G28" t="n">
-        <v>-345489.2624459493</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="n">
-        <v>10.73</v>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1485,24 +1287,15 @@
         <v>44285.3815</v>
       </c>
       <c r="G29" t="n">
-        <v>-345489.2624459493</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="n">
-        <v>10.73</v>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1524,24 +1317,15 @@
         <v>29877.0634</v>
       </c>
       <c r="G30" t="n">
-        <v>-315612.1990459493</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="n">
-        <v>10.73</v>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1563,24 +1347,15 @@
         <v>170</v>
       </c>
       <c r="G31" t="n">
-        <v>-315782.1990459493</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="n">
-        <v>10.73</v>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1602,24 +1377,15 @@
         <v>96.3125</v>
       </c>
       <c r="G32" t="n">
-        <v>-315685.8865459493</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="n">
-        <v>10.73</v>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1641,24 +1407,15 @@
         <v>38034.7126</v>
       </c>
       <c r="G33" t="n">
-        <v>-315685.8865459493</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="n">
-        <v>10.73</v>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1680,24 +1437,15 @@
         <v>94629.8143</v>
       </c>
       <c r="G34" t="n">
-        <v>-221056.0722459493</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="n">
-        <v>10.73</v>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1719,24 +1467,15 @@
         <v>2497.67</v>
       </c>
       <c r="G35" t="n">
-        <v>-223553.7422459493</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="n">
-        <v>10.73</v>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1758,24 +1497,15 @@
         <v>9911.0659</v>
       </c>
       <c r="G36" t="n">
-        <v>-213642.6763459494</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="n">
-        <v>10.73</v>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1797,24 +1527,15 @@
         <v>92419.4002</v>
       </c>
       <c r="G37" t="n">
-        <v>-213642.6763459494</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="n">
-        <v>10.73</v>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1836,24 +1557,15 @@
         <v>71347.52830000001</v>
       </c>
       <c r="G38" t="n">
-        <v>-142295.1480459493</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="n">
-        <v>10.73</v>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1875,24 +1587,15 @@
         <v>33782</v>
       </c>
       <c r="G39" t="n">
-        <v>-176077.1480459493</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="n">
-        <v>10.73</v>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1914,24 +1617,15 @@
         <v>33434.8161</v>
       </c>
       <c r="G40" t="n">
-        <v>-142642.3319459494</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="n">
-        <v>10.73</v>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1953,24 +1647,15 @@
         <v>50650.7003</v>
       </c>
       <c r="G41" t="n">
-        <v>-142642.3319459494</v>
-      </c>
-      <c r="H41" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="n">
-        <v>10.73</v>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L41" t="n">
-        <v>1.044394221808015</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1992,18 +1677,15 @@
         <v>21714.66</v>
       </c>
       <c r="G42" t="n">
-        <v>-142642.3319459494</v>
-      </c>
-      <c r="H42" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2025,18 +1707,15 @@
         <v>68402.9056</v>
       </c>
       <c r="G43" t="n">
-        <v>-142642.3319459494</v>
-      </c>
-      <c r="H43" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2058,18 +1737,15 @@
         <v>30775.223</v>
       </c>
       <c r="G44" t="n">
-        <v>-142642.3319459494</v>
-      </c>
-      <c r="H44" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2091,18 +1767,15 @@
         <v>5648.2956</v>
       </c>
       <c r="G45" t="n">
-        <v>-142642.3319459494</v>
-      </c>
-      <c r="H45" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2124,18 +1797,15 @@
         <v>6530.1347</v>
       </c>
       <c r="G46" t="n">
-        <v>-142642.3319459494</v>
-      </c>
-      <c r="H46" t="n">
         <v>2</v>
       </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2157,18 +1827,15 @@
         <v>21099.436</v>
       </c>
       <c r="G47" t="n">
-        <v>-163741.7679459493</v>
-      </c>
-      <c r="H47" t="n">
         <v>2</v>
       </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2190,18 +1857,15 @@
         <v>66297.0653</v>
       </c>
       <c r="G48" t="n">
-        <v>-230038.8332459494</v>
-      </c>
-      <c r="H48" t="n">
         <v>2</v>
       </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2223,18 +1887,15 @@
         <v>65030.1458</v>
       </c>
       <c r="G49" t="n">
-        <v>-295068.9790459494</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2256,18 +1917,15 @@
         <v>3937.917</v>
       </c>
       <c r="G50" t="n">
-        <v>-299006.8960459494</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2289,18 +1947,15 @@
         <v>48</v>
       </c>
       <c r="G51" t="n">
-        <v>-298958.8960459494</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2322,18 +1977,15 @@
         <v>27516.81818181818</v>
       </c>
       <c r="G52" t="n">
-        <v>-326475.7142277675</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2355,18 +2007,15 @@
         <v>27516.8181</v>
       </c>
       <c r="G53" t="n">
-        <v>-353992.5323277675</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2388,18 +2037,15 @@
         <v>6890</v>
       </c>
       <c r="G54" t="n">
-        <v>-347102.5323277675</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2421,18 +2067,15 @@
         <v>380.9098</v>
       </c>
       <c r="G55" t="n">
-        <v>-347483.4421277675</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2454,18 +2097,15 @@
         <v>129876.3352</v>
       </c>
       <c r="G56" t="n">
-        <v>-477359.7773277676</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2487,18 +2127,15 @@
         <v>131844.0866</v>
       </c>
       <c r="G57" t="n">
-        <v>-609203.8639277676</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2520,18 +2157,15 @@
         <v>12178.4303</v>
       </c>
       <c r="G58" t="n">
-        <v>-597025.4336277676</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2553,18 +2187,15 @@
         <v>172.9184</v>
       </c>
       <c r="G59" t="n">
-        <v>-596852.5152277676</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2586,18 +2217,15 @@
         <v>34060</v>
       </c>
       <c r="G60" t="n">
-        <v>-630912.5152277676</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2619,18 +2247,15 @@
         <v>1923.9174</v>
       </c>
       <c r="G61" t="n">
-        <v>-628988.5978277676</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2652,18 +2277,15 @@
         <v>12708.4904</v>
       </c>
       <c r="G62" t="n">
-        <v>-616280.1074277676</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2685,18 +2307,15 @@
         <v>161329.5615</v>
       </c>
       <c r="G63" t="n">
-        <v>-777609.6689277675</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2718,18 +2337,15 @@
         <v>371684.6401</v>
       </c>
       <c r="G64" t="n">
-        <v>-777609.6689277675</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2751,18 +2367,15 @@
         <v>49970.6708</v>
       </c>
       <c r="G65" t="n">
-        <v>-727638.9981277676</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2784,18 +2397,15 @@
         <v>44460.4104</v>
       </c>
       <c r="G66" t="n">
-        <v>-727638.9981277676</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2817,18 +2427,15 @@
         <v>11710</v>
       </c>
       <c r="G67" t="n">
-        <v>-715928.9981277676</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2850,18 +2457,15 @@
         <v>147319.2463</v>
       </c>
       <c r="G68" t="n">
-        <v>-863248.2444277676</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2883,18 +2487,15 @@
         <v>48.4545</v>
       </c>
       <c r="G69" t="n">
-        <v>-863199.7899277676</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2916,18 +2517,15 @@
         <v>6355.09</v>
       </c>
       <c r="G70" t="n">
-        <v>-863199.7899277676</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2949,18 +2547,15 @@
         <v>17649.8</v>
       </c>
       <c r="G71" t="n">
-        <v>-880849.5899277676</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2982,18 +2577,19 @@
         <v>310.6606</v>
       </c>
       <c r="G72" t="n">
-        <v>-880849.5899277676</v>
+        <v>1</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="inlineStr"/>
+        <v>10.8</v>
+      </c>
+      <c r="I72" t="n">
+        <v>10.8</v>
+      </c>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3015,18 +2611,23 @@
         <v>48.4545</v>
       </c>
       <c r="G73" t="n">
-        <v>-880801.1354277676</v>
+        <v>1</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+        <v>10.8</v>
+      </c>
+      <c r="I73" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3048,18 +2649,23 @@
         <v>36213.8553</v>
       </c>
       <c r="G74" t="n">
-        <v>-880801.1354277676</v>
+        <v>1</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+        <v>10.95</v>
+      </c>
+      <c r="I74" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3081,18 +2687,15 @@
         <v>2172.32</v>
       </c>
       <c r="G75" t="n">
-        <v>-882973.4554277676</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3114,18 +2717,15 @@
         <v>4997.91</v>
       </c>
       <c r="G76" t="n">
-        <v>-882973.4554277676</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3147,18 +2747,15 @@
         <v>5007.34</v>
       </c>
       <c r="G77" t="n">
-        <v>-882973.4554277676</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3180,18 +2777,15 @@
         <v>50</v>
       </c>
       <c r="G78" t="n">
-        <v>-882923.4554277676</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3213,18 +2807,15 @@
         <v>30178.8552</v>
       </c>
       <c r="G79" t="n">
-        <v>-913102.3106277676</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3246,18 +2837,15 @@
         <v>24877.6232</v>
       </c>
       <c r="G80" t="n">
-        <v>-937979.9338277676</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3279,18 +2867,15 @@
         <v>50</v>
       </c>
       <c r="G81" t="n">
-        <v>-937929.9338277676</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3312,18 +2897,15 @@
         <v>5016.54</v>
       </c>
       <c r="G82" t="n">
-        <v>-942946.4738277677</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3345,18 +2927,15 @@
         <v>18370.2</v>
       </c>
       <c r="G83" t="n">
-        <v>-961316.6738277676</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3378,18 +2957,15 @@
         <v>89534.6415</v>
       </c>
       <c r="G84" t="n">
-        <v>-1050851.315327768</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3411,18 +2987,15 @@
         <v>48.4458</v>
       </c>
       <c r="G85" t="n">
-        <v>-1050802.869527767</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3444,18 +3017,15 @@
         <v>5664</v>
       </c>
       <c r="G86" t="n">
-        <v>-1045138.869527767</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3477,18 +3047,15 @@
         <v>48.8245</v>
       </c>
       <c r="G87" t="n">
-        <v>-1045090.045027767</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3510,18 +3077,15 @@
         <v>92</v>
       </c>
       <c r="G88" t="n">
-        <v>-1045182.045027767</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3543,18 +3107,15 @@
         <v>48.4545</v>
       </c>
       <c r="G89" t="n">
-        <v>-1045133.590527767</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3576,18 +3137,15 @@
         <v>4676.3644</v>
       </c>
       <c r="G90" t="n">
-        <v>-1049809.954927767</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3609,18 +3167,15 @@
         <v>300</v>
       </c>
       <c r="G91" t="n">
-        <v>-1050109.954927767</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3642,18 +3197,15 @@
         <v>4362</v>
       </c>
       <c r="G92" t="n">
-        <v>-1045747.954927767</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3675,18 +3227,15 @@
         <v>4336</v>
       </c>
       <c r="G93" t="n">
-        <v>-1041411.954927767</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3708,18 +3257,15 @@
         <v>48.4545</v>
       </c>
       <c r="G94" t="n">
-        <v>-1041363.500427767</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3741,18 +3287,15 @@
         <v>8638.3403</v>
       </c>
       <c r="G95" t="n">
-        <v>-1041363.500427767</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3774,18 +3317,15 @@
         <v>50</v>
       </c>
       <c r="G96" t="n">
-        <v>-1041413.500427767</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3807,18 +3347,15 @@
         <v>4098.4424</v>
       </c>
       <c r="G97" t="n">
-        <v>-1041413.500427767</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3840,18 +3377,15 @@
         <v>44230.3347</v>
       </c>
       <c r="G98" t="n">
-        <v>-1085643.835127767</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3873,18 +3407,15 @@
         <v>48.1252</v>
       </c>
       <c r="G99" t="n">
-        <v>-1085595.709927768</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3906,18 +3437,15 @@
         <v>9759.1481</v>
       </c>
       <c r="G100" t="n">
-        <v>-1085595.709927768</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3939,18 +3467,15 @@
         <v>19645.0139</v>
       </c>
       <c r="G101" t="n">
-        <v>-1105240.723827767</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3972,18 +3497,15 @@
         <v>42044.0307</v>
       </c>
       <c r="G102" t="n">
-        <v>-1147284.754527767</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4005,18 +3527,15 @@
         <v>182.448</v>
       </c>
       <c r="G103" t="n">
-        <v>-1147102.306527767</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4038,18 +3557,15 @@
         <v>189233.036</v>
       </c>
       <c r="G104" t="n">
-        <v>-957869.2705277674</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4071,18 +3587,15 @@
         <v>56856.6265</v>
       </c>
       <c r="G105" t="n">
-        <v>-957869.2705277674</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4104,18 +3617,15 @@
         <v>23349.5197</v>
       </c>
       <c r="G106" t="n">
-        <v>-957869.2705277674</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4137,18 +3647,15 @@
         <v>25515.0634</v>
       </c>
       <c r="G107" t="n">
-        <v>-983384.3339277674</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4170,18 +3677,15 @@
         <v>37472.813</v>
       </c>
       <c r="G108" t="n">
-        <v>-945911.5209277674</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4203,22 +3707,15 @@
         <v>48</v>
       </c>
       <c r="G109" t="n">
-        <v>-945863.5209277674</v>
-      </c>
-      <c r="H109" t="n">
-        <v>1</v>
-      </c>
-      <c r="I109" t="n">
-        <v>10.82</v>
-      </c>
-      <c r="J109" t="n">
-        <v>10.82</v>
-      </c>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
+      <c r="I109" t="inlineStr"/>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4240,26 +3737,15 @@
         <v>19810</v>
       </c>
       <c r="G110" t="n">
-        <v>-965673.5209277674</v>
-      </c>
-      <c r="H110" t="n">
-        <v>1</v>
-      </c>
-      <c r="I110" t="n">
-        <v>10.95</v>
-      </c>
-      <c r="J110" t="n">
-        <v>10.82</v>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
+      <c r="I110" t="inlineStr"/>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4281,26 +3767,15 @@
         <v>5619.4194</v>
       </c>
       <c r="G111" t="n">
-        <v>-960054.1015277674</v>
-      </c>
-      <c r="H111" t="n">
-        <v>1</v>
-      </c>
-      <c r="I111" t="n">
-        <v>10.84</v>
-      </c>
-      <c r="J111" t="n">
-        <v>10.82</v>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
+      <c r="I111" t="inlineStr"/>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
